--- a/URS/DbLayouts/XX-系統/TxToDoDetail.xlsx
+++ b/URS/DbLayouts/XX-系統/TxToDoDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ItemCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -185,10 +181,6 @@
   </si>
   <si>
     <t>額度編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BormNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -284,10 +276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DtlValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>應處理清單檔&lt;應處理清單&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -316,19 +304,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TitaKinbr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTlrNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaTxtNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaEntdy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -454,13 +430,49 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">json format
+1.Note </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTxNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaEntdy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaKinbr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtlValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCode,CustNo,BormNo,DtlValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ItemCode = ,AND Status &gt;= ,AND Status &lt;=  ,AND DataDate &gt;= ,AND DataDate &lt;=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">json format
-1.Note </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve">ItemCode = ,AND TitaEntdy = ,AND TitaKinbr = ,AND TitaTlrNo = ,AND TitaTxtNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1070,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1120,10 +1132,10 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="12"/>
@@ -1146,7 +1158,7 @@
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="27"/>
@@ -1159,7 +1171,7 @@
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="27"/>
@@ -1205,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>20</v>
@@ -1226,10 +1238,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>19</v>
@@ -1245,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>19</v>
@@ -1264,10 +1276,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>19</v>
@@ -1283,10 +1295,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>18</v>
@@ -1296,7 +1308,7 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="19" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -1304,10 +1316,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>19</v>
@@ -1317,7 +1329,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1325,20 +1337,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="29">
         <v>300</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1346,10 +1358,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>18</v>
@@ -1359,7 +1371,7 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -1369,13 +1381,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E17" s="41">
         <v>8</v>
@@ -1388,13 +1400,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="E18" s="41">
         <v>8</v>
@@ -1407,10 +1419,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>18</v>
@@ -1426,10 +1438,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>18</v>
@@ -1445,10 +1457,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>19</v>
@@ -1464,13 +1476,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E22" s="32">
         <v>8</v>
@@ -1483,13 +1495,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E23" s="32">
         <v>6</v>
@@ -1502,13 +1514,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E24" s="32">
         <v>8</v>
@@ -1521,13 +1533,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E25" s="32">
         <v>6</v>
@@ -1553,11 +1565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1581,46 +1593,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
